--- a/docs/phys/docs.xlsx
+++ b/docs/phys/docs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">Photon Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta-cell-signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED CMOS Sync</t>
   </si>
 </sst>
 </file>
@@ -198,10 +204,10 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.66"/>
@@ -279,7 +285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -290,6 +296,20 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
